--- a/MySQL Table Generator/TableDesign_ZTX.xlsx
+++ b/MySQL Table Generator/TableDesign_ZTX.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Islam\World\01_STZ\DataLine\Github\Internal\MySQL Table Generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A77F0BC-52F3-474A-BC2D-5363F6865B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3116EB-C943-4401-A055-C0AE199F7D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{182BECEF-A2D9-4B2C-A341-9F1C7EE47CD6}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{182BECEF-A2D9-4B2C-A341-9F1C7EE47CD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Job1" sheetId="6" r:id="rId1"/>
-    <sheet name="DataType" sheetId="2" r:id="rId2"/>
-    <sheet name="Config" sheetId="3" r:id="rId3"/>
-    <sheet name="Job" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="DataType" sheetId="2" r:id="rId3"/>
+    <sheet name="Config" sheetId="3" r:id="rId4"/>
+    <sheet name="Job" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="125">
   <si>
     <t>screencolumn</t>
   </si>
@@ -286,6 +287,123 @@
   </si>
   <si>
     <t>400</t>
+  </si>
+  <si>
+    <t>EntryDate</t>
+  </si>
+  <si>
+    <t>LeadDate</t>
+  </si>
+  <si>
+    <t>CancelledDate</t>
+  </si>
+  <si>
+    <t>EnqDate</t>
+  </si>
+  <si>
+    <t>RateReqDate</t>
+  </si>
+  <si>
+    <t>RateRcvdDate</t>
+  </si>
+  <si>
+    <t>QtnSentDate</t>
+  </si>
+  <si>
+    <t>CnfmRcvdDate</t>
+  </si>
+  <si>
+    <t>JobDate</t>
+  </si>
+  <si>
+    <t>BkgSentToLineorAgtDate</t>
+  </si>
+  <si>
+    <t>CroReceivedDate</t>
+  </si>
+  <si>
+    <t>CroSentToTransDate</t>
+  </si>
+  <si>
+    <t>ContrNoRecDate</t>
+  </si>
+  <si>
+    <t>WBillSentDate</t>
+  </si>
+  <si>
+    <t>SealNoRecDate</t>
+  </si>
+  <si>
+    <t>ShippingInstRecDate</t>
+  </si>
+  <si>
+    <t>ShipInstSentDateToSl</t>
+  </si>
+  <si>
+    <t>ManifestRecDateFromSl</t>
+  </si>
+  <si>
+    <t>ShiperClDocDate</t>
+  </si>
+  <si>
+    <t>BlDraftFromSlRecDate</t>
+  </si>
+  <si>
+    <t>BlDraftToCustSentDate</t>
+  </si>
+  <si>
+    <t>BlDraftConfFromCustRecDate</t>
+  </si>
+  <si>
+    <t>DocSentToBrokerDate</t>
+  </si>
+  <si>
+    <t>ManifestSentToBrokerDate</t>
+  </si>
+  <si>
+    <t>GatePassRecDate</t>
+  </si>
+  <si>
+    <t>GatePassSentToTransDate</t>
+  </si>
+  <si>
+    <t>FinalBayanorOkToLoadRecDate</t>
+  </si>
+  <si>
+    <t>LoadingConfirmationRecDate</t>
+  </si>
+  <si>
+    <t>PreAlertSentDate</t>
+  </si>
+  <si>
+    <t>ArrivalNotificationSentDate</t>
+  </si>
+  <si>
+    <t>InvoicePreparedDate</t>
+  </si>
+  <si>
+    <t>HBLDate</t>
+  </si>
+  <si>
+    <t>MBLDate</t>
+  </si>
+  <si>
+    <t>DebitorCreditNoteDate</t>
+  </si>
+  <si>
+    <t>ETADate</t>
+  </si>
+  <si>
+    <t>TelexReleaseorSeawayBillDate</t>
+  </si>
+  <si>
+    <t>OblorGuaranteeCollectedDate</t>
+  </si>
+  <si>
+    <t>DocumentsReleasedDate</t>
+  </si>
+  <si>
+    <t>PaymentRecDate</t>
   </si>
 </sst>
 </file>
@@ -327,7 +445,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,8 +458,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -364,12 +488,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -379,18 +514,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{F5F38AF0-E947-4BB1-802E-12647BE95CDB}"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -451,6 +582,12 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -466,7 +603,51 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{316E9B23-4F99-484E-8E39-8B178B0BB26B}" name="Table26" displayName="Table26" ref="A1:G62" totalsRowShown="0">
-  <autoFilter ref="A1:G62" xr:uid="{8AB8FB23-609C-4CD8-A0AC-E414C0C2AAF9}"/>
+  <autoFilter ref="A1:G62" xr:uid="{8AB8FB23-609C-4CD8-A0AC-E414C0C2AAF9}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="ArrivalNotificationSentDate"/>
+        <filter val="BkgSentToLineorAgtDate"/>
+        <filter val="BlDraftConfFromCustRecDate"/>
+        <filter val="BlDraftFromSlRecDate"/>
+        <filter val="BlDraftToCustSentDate"/>
+        <filter val="CancelledDate"/>
+        <filter val="CnfmRcvdDate"/>
+        <filter val="ContrNoRecDate"/>
+        <filter val="CroReceivedDate"/>
+        <filter val="CroSentToTransDate"/>
+        <filter val="DebitorCreditNoteDate"/>
+        <filter val="DocSentToBrokerDate"/>
+        <filter val="DocumentsReleasedDate"/>
+        <filter val="EnqDate"/>
+        <filter val="EntryDate"/>
+        <filter val="ETADate"/>
+        <filter val="FinalBayanorOkToLoadRecDate"/>
+        <filter val="GatePassRecDate"/>
+        <filter val="GatePassSentToTransDate"/>
+        <filter val="HBLDate"/>
+        <filter val="InvoicePreparedDate"/>
+        <filter val="JobDate"/>
+        <filter val="LeadDate"/>
+        <filter val="LoadingConfirmationRecDate"/>
+        <filter val="ManifestRecDateFromSl"/>
+        <filter val="ManifestSentToBrokerDate"/>
+        <filter val="MBLDate"/>
+        <filter val="OblorGuaranteeCollectedDate"/>
+        <filter val="PaymentRecDate"/>
+        <filter val="PreAlertSentDate"/>
+        <filter val="QtnSentDate"/>
+        <filter val="RateRcvdDate"/>
+        <filter val="RateReqDate"/>
+        <filter val="SealNoRecDate"/>
+        <filter val="ShiperClDocDate"/>
+        <filter val="ShipInstSentDateToSl"/>
+        <filter val="ShippingInstRecDate"/>
+        <filter val="TelexReleaseorSeawayBillDate"/>
+        <filter val="WBillSentDate"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="7">
     <tableColumn id="4" xr3:uid="{6F9AFF6F-8A62-4A81-BC70-5DB015242A68}" name="sno">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
@@ -477,8 +658,8 @@
     </tableColumn>
     <tableColumn id="3" xr3:uid="{106AB191-45C6-4934-826F-437DA3DDE210}" name="datatype"/>
     <tableColumn id="5" xr3:uid="{7656016F-440B-47BC-A9E8-5E8F59C222A2}" name="mysqldatatype"/>
-    <tableColumn id="6" xr3:uid="{986B9368-DF7F-4954-945F-43AB906EBCAD}" name="mysqllength" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{A04B02E2-9745-49E6-AB80-964E73917D14}" name="nullability" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{986B9368-DF7F-4954-945F-43AB906EBCAD}" name="mysqllength" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{A04B02E2-9745-49E6-AB80-964E73917D14}" name="nullability" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -495,20 +676,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A4F40315-D3E7-4D12-A0DD-93715AE8E9DE}" name="Table3" displayName="Table3" ref="A1:A8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A4F40315-D3E7-4D12-A0DD-93715AE8E9DE}" name="Table3" displayName="Table3" ref="A1:A8" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:A8" xr:uid="{A4F40315-D3E7-4D12-A0DD-93715AE8E9DE}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{C4D02D59-765F-48BA-8F1B-472CDCCC210D}" name="MySQLDataType" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{C4D02D59-765F-48BA-8F1B-472CDCCC210D}" name="MySQLDataType" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F4B27544-B474-4537-ADCE-A2BA208E3AB7}" name="Table4" displayName="Table4" ref="C1:C3" totalsRowShown="0" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F4B27544-B474-4537-ADCE-A2BA208E3AB7}" name="Table4" displayName="Table4" ref="C1:C3" totalsRowShown="0" dataDxfId="1">
   <autoFilter ref="C1:C3" xr:uid="{F4B27544-B474-4537-ADCE-A2BA208E3AB7}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{6AC71AB2-93CB-4382-B28C-2B91F194D22F}" name="Nullability" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{6AC71AB2-93CB-4382-B28C-2B91F194D22F}" name="Nullability" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -813,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117708C7-6232-4B09-A41E-8460BEB7E9D7}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -851,7 +1032,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <f t="shared" ref="A2:A60" si="0">ROW(A1)</f>
         <v>1</v>
@@ -898,7 +1079,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -923,7 +1104,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1014,7 +1195,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1039,7 +1220,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1064,7 +1245,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1089,7 +1270,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1114,7 +1295,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1139,7 +1320,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1164,7 +1345,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1236,7 +1417,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1258,7 +1439,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1280,7 +1461,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1302,7 +1483,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1324,7 +1505,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1412,7 +1593,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1503,7 +1684,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1528,7 +1709,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1575,7 +1756,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1622,7 +1803,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1669,7 +1850,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2243,7 +2424,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -2300,6 +2481,223 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72A9F10-8E12-43C4-B118-468ADF663C61}">
+  <dimension ref="D2:F40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="27.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"union all select Type = " &amp;D2 &amp;" count(*) from job1 where "&amp;D2&amp;" = @date group by " &amp; D2</f>
+        <v>union all select Type = EntryDate count(*) from job1 where EntryDate = @date group by EntryDate</v>
+      </c>
+    </row>
+    <row r="3" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D3" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D4" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D5" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D6" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D7" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D8" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D9" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D10" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D11" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D12" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D13" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D14" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D15" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D16" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D17" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D18" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D19" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D20" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D21" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D22" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D23" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D24" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D25" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D26" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D27" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D28" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D29" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D30" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D31" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D32" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D33" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D34" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D35" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D36" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D37" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D38" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D39" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D40" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06058F5F-935E-463C-A967-A99082B5A519}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -2340,7 +2738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E7A8DB-32BA-44F3-9742-9EBEB10E6D3B}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -2413,7 +2811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9755E289-A8AE-411D-8A45-E529EC666412}">
   <dimension ref="B3:B64"/>
   <sheetViews>

--- a/MySQL Table Generator/TableDesign_ZTX.xlsx
+++ b/MySQL Table Generator/TableDesign_ZTX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Islam\World\01_STZ\DataLine\Github\Internal\MySQL Table Generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3116EB-C943-4401-A055-C0AE199F7D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D6F06C-F32A-4346-B14B-FA84A3AE5282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{182BECEF-A2D9-4B2C-A341-9F1C7EE47CD6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{182BECEF-A2D9-4B2C-A341-9F1C7EE47CD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Job1" sheetId="6" r:id="rId1"/>
@@ -514,8 +514,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2482,10 +2482,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72A9F10-8E12-43C4-B118-468ADF663C61}">
-  <dimension ref="D2:F40"/>
+  <dimension ref="D2:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2493,203 +2493,355 @@
     <col min="4" max="4" width="27.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F2" t="str">
-        <f>"union all select Type = " &amp;D2 &amp;" count(*) from job1 where "&amp;D2&amp;" = @date group by " &amp; D2</f>
-        <v>union all select Type = EntryDate count(*) from job1 where EntryDate = @date group by EntryDate</v>
-      </c>
-    </row>
-    <row r="3" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E2" t="str">
+        <f>"union all select '" &amp;D2 &amp;"' as Category, cast(" &amp;D2 &amp;" as char) as Date, count(*) AS Count from job1 GROUP BY  "&amp;D2&amp;" Having  "&amp;D2&amp;" is not null "</f>
+        <v xml:space="preserve">union all select 'EntryDate' as Category, cast(EntryDate as char) as Date, count(*) AS Count from job1 GROUP BY  EntryDate Having  EntryDate is not null </v>
+      </c>
+    </row>
+    <row r="3" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D3" s="6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E40" si="0">"union all select '" &amp;D3 &amp;"' as Category, cast(" &amp;D3 &amp;" as char) as Date, count(*) AS Count from job1 GROUP BY  "&amp;D3&amp;" Having  "&amp;D3&amp;" is not null "</f>
+        <v xml:space="preserve">union all select 'LeadDate' as Category, cast(LeadDate as char) as Date, count(*) AS Count from job1 GROUP BY  LeadDate Having  LeadDate is not null </v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D4" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'CancelledDate' as Category, cast(CancelledDate as char) as Date, count(*) AS Count from job1 GROUP BY  CancelledDate Having  CancelledDate is not null </v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D5" s="6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'EnqDate' as Category, cast(EnqDate as char) as Date, count(*) AS Count from job1 GROUP BY  EnqDate Having  EnqDate is not null </v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D6" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'RateReqDate' as Category, cast(RateReqDate as char) as Date, count(*) AS Count from job1 GROUP BY  RateReqDate Having  RateReqDate is not null </v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D7" s="6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'RateRcvdDate' as Category, cast(RateRcvdDate as char) as Date, count(*) AS Count from job1 GROUP BY  RateRcvdDate Having  RateRcvdDate is not null </v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D8" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'QtnSentDate' as Category, cast(QtnSentDate as char) as Date, count(*) AS Count from job1 GROUP BY  QtnSentDate Having  QtnSentDate is not null </v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D9" s="6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'CnfmRcvdDate' as Category, cast(CnfmRcvdDate as char) as Date, count(*) AS Count from job1 GROUP BY  CnfmRcvdDate Having  CnfmRcvdDate is not null </v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D10" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'JobDate' as Category, cast(JobDate as char) as Date, count(*) AS Count from job1 GROUP BY  JobDate Having  JobDate is not null </v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D11" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'BkgSentToLineorAgtDate' as Category, cast(BkgSentToLineorAgtDate as char) as Date, count(*) AS Count from job1 GROUP BY  BkgSentToLineorAgtDate Having  BkgSentToLineorAgtDate is not null </v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D12" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'CroReceivedDate' as Category, cast(CroReceivedDate as char) as Date, count(*) AS Count from job1 GROUP BY  CroReceivedDate Having  CroReceivedDate is not null </v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D13" s="6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'CroSentToTransDate' as Category, cast(CroSentToTransDate as char) as Date, count(*) AS Count from job1 GROUP BY  CroSentToTransDate Having  CroSentToTransDate is not null </v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D14" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'ContrNoRecDate' as Category, cast(ContrNoRecDate as char) as Date, count(*) AS Count from job1 GROUP BY  ContrNoRecDate Having  ContrNoRecDate is not null </v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D15" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'WBillSentDate' as Category, cast(WBillSentDate as char) as Date, count(*) AS Count from job1 GROUP BY  WBillSentDate Having  WBillSentDate is not null </v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D16" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'SealNoRecDate' as Category, cast(SealNoRecDate as char) as Date, count(*) AS Count from job1 GROUP BY  SealNoRecDate Having  SealNoRecDate is not null </v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D17" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'ShippingInstRecDate' as Category, cast(ShippingInstRecDate as char) as Date, count(*) AS Count from job1 GROUP BY  ShippingInstRecDate Having  ShippingInstRecDate is not null </v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D18" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'ShipInstSentDateToSl' as Category, cast(ShipInstSentDateToSl as char) as Date, count(*) AS Count from job1 GROUP BY  ShipInstSentDateToSl Having  ShipInstSentDateToSl is not null </v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D19" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'ManifestRecDateFromSl' as Category, cast(ManifestRecDateFromSl as char) as Date, count(*) AS Count from job1 GROUP BY  ManifestRecDateFromSl Having  ManifestRecDateFromSl is not null </v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D20" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'ShiperClDocDate' as Category, cast(ShiperClDocDate as char) as Date, count(*) AS Count from job1 GROUP BY  ShiperClDocDate Having  ShiperClDocDate is not null </v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D21" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'BlDraftFromSlRecDate' as Category, cast(BlDraftFromSlRecDate as char) as Date, count(*) AS Count from job1 GROUP BY  BlDraftFromSlRecDate Having  BlDraftFromSlRecDate is not null </v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D22" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'BlDraftToCustSentDate' as Category, cast(BlDraftToCustSentDate as char) as Date, count(*) AS Count from job1 GROUP BY  BlDraftToCustSentDate Having  BlDraftToCustSentDate is not null </v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D23" s="6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'BlDraftConfFromCustRecDate' as Category, cast(BlDraftConfFromCustRecDate as char) as Date, count(*) AS Count from job1 GROUP BY  BlDraftConfFromCustRecDate Having  BlDraftConfFromCustRecDate is not null </v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D24" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'DocSentToBrokerDate' as Category, cast(DocSentToBrokerDate as char) as Date, count(*) AS Count from job1 GROUP BY  DocSentToBrokerDate Having  DocSentToBrokerDate is not null </v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D25" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'ManifestSentToBrokerDate' as Category, cast(ManifestSentToBrokerDate as char) as Date, count(*) AS Count from job1 GROUP BY  ManifestSentToBrokerDate Having  ManifestSentToBrokerDate is not null </v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D26" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'GatePassRecDate' as Category, cast(GatePassRecDate as char) as Date, count(*) AS Count from job1 GROUP BY  GatePassRecDate Having  GatePassRecDate is not null </v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D27" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'GatePassSentToTransDate' as Category, cast(GatePassSentToTransDate as char) as Date, count(*) AS Count from job1 GROUP BY  GatePassSentToTransDate Having  GatePassSentToTransDate is not null </v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D28" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'FinalBayanorOkToLoadRecDate' as Category, cast(FinalBayanorOkToLoadRecDate as char) as Date, count(*) AS Count from job1 GROUP BY  FinalBayanorOkToLoadRecDate Having  FinalBayanorOkToLoadRecDate is not null </v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D29" s="6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'LoadingConfirmationRecDate' as Category, cast(LoadingConfirmationRecDate as char) as Date, count(*) AS Count from job1 GROUP BY  LoadingConfirmationRecDate Having  LoadingConfirmationRecDate is not null </v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D30" s="5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'PreAlertSentDate' as Category, cast(PreAlertSentDate as char) as Date, count(*) AS Count from job1 GROUP BY  PreAlertSentDate Having  PreAlertSentDate is not null </v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D31" s="6" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'ArrivalNotificationSentDate' as Category, cast(ArrivalNotificationSentDate as char) as Date, count(*) AS Count from job1 GROUP BY  ArrivalNotificationSentDate Having  ArrivalNotificationSentDate is not null </v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D32" s="5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'InvoicePreparedDate' as Category, cast(InvoicePreparedDate as char) as Date, count(*) AS Count from job1 GROUP BY  InvoicePreparedDate Having  InvoicePreparedDate is not null </v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D33" s="6" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'HBLDate' as Category, cast(HBLDate as char) as Date, count(*) AS Count from job1 GROUP BY  HBLDate Having  HBLDate is not null </v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D34" s="5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'MBLDate' as Category, cast(MBLDate as char) as Date, count(*) AS Count from job1 GROUP BY  MBLDate Having  MBLDate is not null </v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D35" s="6" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'DebitorCreditNoteDate' as Category, cast(DebitorCreditNoteDate as char) as Date, count(*) AS Count from job1 GROUP BY  DebitorCreditNoteDate Having  DebitorCreditNoteDate is not null </v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D36" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'ETADate' as Category, cast(ETADate as char) as Date, count(*) AS Count from job1 GROUP BY  ETADate Having  ETADate is not null </v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D37" s="6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'TelexReleaseorSeawayBillDate' as Category, cast(TelexReleaseorSeawayBillDate as char) as Date, count(*) AS Count from job1 GROUP BY  TelexReleaseorSeawayBillDate Having  TelexReleaseorSeawayBillDate is not null </v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D38" s="5" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'OblorGuaranteeCollectedDate' as Category, cast(OblorGuaranteeCollectedDate as char) as Date, count(*) AS Count from job1 GROUP BY  OblorGuaranteeCollectedDate Having  OblorGuaranteeCollectedDate is not null </v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D39" s="6" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'DocumentsReleasedDate' as Category, cast(DocumentsReleasedDate as char) as Date, count(*) AS Count from job1 GROUP BY  DocumentsReleasedDate Having  DocumentsReleasedDate is not null </v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D40" s="5" t="s">
         <v>124</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">union all select 'PaymentRecDate' as Category, cast(PaymentRecDate as char) as Date, count(*) AS Count from job1 GROUP BY  PaymentRecDate Having  PaymentRecDate is not null </v>
       </c>
     </row>
   </sheetData>
